--- a/Project 2/Documents/FunctionPlotterDocuments/SalterOutput/output2SaltedGraph.xlsx
+++ b/Project 2/Documents/FunctionPlotterDocuments/SalterOutput/output2SaltedGraph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB079A03-18B9-40EB-B564-EED0230814D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9BE5AFE5-0DCB-4C42-8DDA-690861B2B4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{EC8B19B9-0782-487A-8E50-DB364F78CA2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{3E9304A2-9BF7-4802-BB51-333D10E272B3}"/>
   </bookViews>
   <sheets>
     <sheet name="output2Salted" sheetId="1" r:id="rId1"/>
@@ -592,14 +592,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Salted Output (Range:</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Salted Output (Range: 100 - 500)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 100 - 500)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -979,304 +981,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-357</c:v>
+                  <c:v>-278</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>345</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-426</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-414</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>465</c:v>
+                  <c:v>-313</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-62</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>431</c:v>
+                  <c:v>-244</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-226</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>748</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>584</c:v>
+                  <c:v>-99</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>733</c:v>
+                  <c:v>802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>919</c:v>
+                  <c:v>739</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>502</c:v>
+                  <c:v>838</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>917</c:v>
+                  <c:v>1166</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>606</c:v>
+                  <c:v>636</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>521</c:v>
+                  <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1559</c:v>
+                  <c:v>841</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1468</c:v>
+                  <c:v>1541</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1887</c:v>
+                  <c:v>1261</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1125</c:v>
+                  <c:v>1851</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1484</c:v>
+                  <c:v>1505</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2034</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1891</c:v>
+                  <c:v>2388</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2561</c:v>
+                  <c:v>2663</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1974</c:v>
+                  <c:v>2178</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2145</c:v>
+                  <c:v>2741</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2357</c:v>
+                  <c:v>2374</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2718</c:v>
+                  <c:v>3427</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2862</c:v>
+                  <c:v>3391</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3121</c:v>
+                  <c:v>3838</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3917</c:v>
+                  <c:v>4183</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4111</c:v>
+                  <c:v>4193</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3853</c:v>
+                  <c:v>4411</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4676</c:v>
+                  <c:v>4062</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4434</c:v>
+                  <c:v>4341</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4662</c:v>
+                  <c:v>4813</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5082</c:v>
+                  <c:v>5575</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6070</c:v>
+                  <c:v>5985</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5849</c:v>
+                  <c:v>6123</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6554</c:v>
+                  <c:v>6532</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6852</c:v>
+                  <c:v>6202</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7193</c:v>
+                  <c:v>6822</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7099</c:v>
+                  <c:v>7451</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7734</c:v>
+                  <c:v>7498</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8363</c:v>
+                  <c:v>7547</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8088</c:v>
+                  <c:v>8814</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8950</c:v>
+                  <c:v>8388</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8808</c:v>
+                  <c:v>8609</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9344</c:v>
+                  <c:v>9709</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>10229</c:v>
+                  <c:v>9745</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9988</c:v>
+                  <c:v>10542</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10433</c:v>
+                  <c:v>11028</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11419</c:v>
+                  <c:v>10900</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11700</c:v>
+                  <c:v>11795</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11768</c:v>
+                  <c:v>11538</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12050</c:v>
+                  <c:v>12002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12561</c:v>
+                  <c:v>13047</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12877</c:v>
+                  <c:v>12879</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13457</c:v>
+                  <c:v>13287</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>14099</c:v>
+                  <c:v>14644</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>14579</c:v>
+                  <c:v>14555</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>15027</c:v>
+                  <c:v>15426</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>15552</c:v>
+                  <c:v>15457</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>16686</c:v>
+                  <c:v>16330</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>17108</c:v>
+                  <c:v>17181</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17604</c:v>
+                  <c:v>16766</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>17620</c:v>
+                  <c:v>17312</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>18480</c:v>
+                  <c:v>18639</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>18944</c:v>
+                  <c:v>18516</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>18933</c:v>
+                  <c:v>19868</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>19564</c:v>
+                  <c:v>20394</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>20328</c:v>
+                  <c:v>20968</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>20639</c:v>
+                  <c:v>20816</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>21880</c:v>
+                  <c:v>21902</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>21890</c:v>
+                  <c:v>22008</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>22398</c:v>
+                  <c:v>23101</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>23336</c:v>
+                  <c:v>23298</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>24424</c:v>
+                  <c:v>23622</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>24464</c:v>
+                  <c:v>25108</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>25236</c:v>
+                  <c:v>24993</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>26106</c:v>
+                  <c:v>26448</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>26314</c:v>
+                  <c:v>26226</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>27459</c:v>
+                  <c:v>27019</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>28412</c:v>
+                  <c:v>28103</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>28185</c:v>
+                  <c:v>29099</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>29808</c:v>
+                  <c:v>29567</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>30424</c:v>
+                  <c:v>30377</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>30288</c:v>
+                  <c:v>30918</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>31132</c:v>
+                  <c:v>31702</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>31868</c:v>
+                  <c:v>32569</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>33094</c:v>
+                  <c:v>32740</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>33449</c:v>
+                  <c:v>33180</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>34068</c:v>
+                  <c:v>34188</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>34789</c:v>
+                  <c:v>35451</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>35679</c:v>
+                  <c:v>36126</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>36139</c:v>
+                  <c:v>36920</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>37129</c:v>
+                  <c:v>37466</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>37877</c:v>
+                  <c:v>37752</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>39316</c:v>
+                  <c:v>38639</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>39416</c:v>
+                  <c:v>39504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,7 +1286,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3CF3-4390-A17C-F86EFDFBDC49}"/>
+              <c16:uniqueId val="{00000000-783A-48B4-B471-444CF5D3ED98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1296,11 +1298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1888802735"/>
-        <c:axId val="1888801295"/>
+        <c:axId val="863351727"/>
+        <c:axId val="863349327"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1888802735"/>
+        <c:axId val="863351727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1340,7 +1342,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>X-Values</a:t>
                 </a:r>
               </a:p>
@@ -1412,12 +1421,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888801295"/>
+        <c:crossAx val="863349327"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1888801295"/>
+        <c:axId val="863349327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1466,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Y-Values</a:t>
                 </a:r>
               </a:p>
@@ -1529,7 +1545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888802735"/>
+        <c:crossAx val="863351727"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2139,22 +2155,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF64271-4C91-9FB7-1FD5-C5E1B2D9EE87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{172833B6-4AC8-5834-2A93-00DC256CA1E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,11 +2507,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF000F1-910F-4AB8-8194-6F0086940548}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66730FE-C791-45CF-88C1-2693219D6DD4}">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2505,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>-357</v>
+        <v>-278</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2513,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>345</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2521,7 +2537,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-426</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2529,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2537,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>465</v>
+        <v>-313</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2545,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-62</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2553,7 +2569,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>431</v>
+        <v>-244</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2561,7 +2577,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-226</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2569,7 +2585,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>748</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2577,7 +2593,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>584</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2585,7 +2601,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>733</v>
+        <v>802</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2593,7 +2609,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>919</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2601,7 +2617,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>502</v>
+        <v>838</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2609,7 +2625,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>917</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2617,7 +2633,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>606</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2625,7 +2641,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>521</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2633,7 +2649,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1559</v>
+        <v>841</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2641,7 +2657,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1468</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2649,7 +2665,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1887</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2657,7 +2673,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1125</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2665,7 +2681,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1484</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2673,7 +2689,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2034</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2681,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1891</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2689,7 +2705,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2561</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2697,7 +2713,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1974</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2705,7 +2721,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2145</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2713,7 +2729,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2357</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2721,7 +2737,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2718</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2729,7 +2745,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2862</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2737,7 +2753,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>3121</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2745,7 +2761,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>3917</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2753,7 +2769,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>4111</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2761,7 +2777,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>3853</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2769,7 +2785,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>4676</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2777,7 +2793,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>4434</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2785,7 +2801,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>4662</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2793,7 +2809,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>5082</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2801,7 +2817,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>6070</v>
+        <v>5985</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2809,7 +2825,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>5849</v>
+        <v>6123</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2817,7 +2833,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>6554</v>
+        <v>6532</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2825,7 +2841,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>6852</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2833,7 +2849,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7193</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2841,7 +2857,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7099</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2849,7 +2865,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7734</v>
+        <v>7498</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2857,7 +2873,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>8363</v>
+        <v>7547</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2865,7 +2881,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>8088</v>
+        <v>8814</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2873,7 +2889,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>8950</v>
+        <v>8388</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2881,7 +2897,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>8808</v>
+        <v>8609</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2889,7 +2905,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>9344</v>
+        <v>9709</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2897,7 +2913,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>10229</v>
+        <v>9745</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2905,7 +2921,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>9988</v>
+        <v>10542</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2913,7 +2929,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>10433</v>
+        <v>11028</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2921,7 +2937,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>11419</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2929,7 +2945,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>11700</v>
+        <v>11795</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2937,7 +2953,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>11768</v>
+        <v>11538</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2945,7 +2961,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>12050</v>
+        <v>12002</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2953,7 +2969,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>12561</v>
+        <v>13047</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2961,7 +2977,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>12877</v>
+        <v>12879</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2969,7 +2985,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>13457</v>
+        <v>13287</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2977,7 +2993,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>14099</v>
+        <v>14644</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2985,7 +3001,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>14579</v>
+        <v>14555</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2993,7 +3009,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>15027</v>
+        <v>15426</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -3001,7 +3017,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>15552</v>
+        <v>15457</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3009,7 +3025,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>16686</v>
+        <v>16330</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -3017,7 +3033,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>17108</v>
+        <v>17181</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3025,7 +3041,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>17604</v>
+        <v>16766</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -3033,7 +3049,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>17620</v>
+        <v>17312</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3041,7 +3057,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>18480</v>
+        <v>18639</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -3049,7 +3065,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>18944</v>
+        <v>18516</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3057,7 +3073,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>18933</v>
+        <v>19868</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -3065,7 +3081,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>19564</v>
+        <v>20394</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -3073,7 +3089,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>20328</v>
+        <v>20968</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -3081,7 +3097,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>20639</v>
+        <v>20816</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -3089,7 +3105,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>21880</v>
+        <v>21902</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3097,7 +3113,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>21890</v>
+        <v>22008</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -3105,7 +3121,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>22398</v>
+        <v>23101</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -3113,7 +3129,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>23336</v>
+        <v>23298</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -3121,7 +3137,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>24424</v>
+        <v>23622</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -3129,7 +3145,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>24464</v>
+        <v>25108</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -3137,7 +3153,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>25236</v>
+        <v>24993</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -3145,7 +3161,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>26106</v>
+        <v>26448</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3153,7 +3169,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>26314</v>
+        <v>26226</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -3161,7 +3177,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>27459</v>
+        <v>27019</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -3169,7 +3185,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>28412</v>
+        <v>28103</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -3177,7 +3193,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>28185</v>
+        <v>29099</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -3185,7 +3201,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>29808</v>
+        <v>29567</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -3193,7 +3209,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>30424</v>
+        <v>30377</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -3201,7 +3217,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>30288</v>
+        <v>30918</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -3209,7 +3225,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>31132</v>
+        <v>31702</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -3217,7 +3233,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>31868</v>
+        <v>32569</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -3225,7 +3241,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>33094</v>
+        <v>32740</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -3233,7 +3249,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>33449</v>
+        <v>33180</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -3241,7 +3257,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>34068</v>
+        <v>34188</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -3249,7 +3265,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>34789</v>
+        <v>35451</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -3257,7 +3273,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>35679</v>
+        <v>36126</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -3265,7 +3281,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>36139</v>
+        <v>36920</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -3273,7 +3289,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>37129</v>
+        <v>37466</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -3281,7 +3297,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>37877</v>
+        <v>37752</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -3289,7 +3305,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>39316</v>
+        <v>38639</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -3297,7 +3313,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>39416</v>
+        <v>39504</v>
       </c>
     </row>
   </sheetData>
